--- a/~Documents~/일정표.xlsx
+++ b/~Documents~/일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\To_Be_A_Butterfly\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\~Documents~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32EF60D-D031-49C9-B2E6-A4D571FADFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D9004-DC20-405C-B9C2-7FFEDC229992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,11 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RecvClientInfo() 값을 받아 
-로비 씬 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 타임 추가 (클라이언트)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,29 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>함수 정의</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendGameTime()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvGameTime()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvGameStartEvent()</t>
-  </si>
-  <si>
     <t>맵 정보 송신
 SendMapData</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,50 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>송수신 중간 점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVP 씬 생성 
-SendClientInfo() 바탕으로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvClientStatus()에 맞춰
-MVP씬 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvClientStatus 결과 사망 시
-다른 두 클라이언트의 status 검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvClientStatus 결과 목표 지점 도달 시
-다른 두 클라이언트의 status 검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 플레이 확인, 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status 검사 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvGameClearEvent()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendGameOverEvent()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvGameOverEvent()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기존 클라이언트 수정 (플레이)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,16 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SendGameClear
-Event()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 time 값 
-이용해 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>중간 점검 및
 오류 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,11 +172,6 @@
   </si>
   <si>
     <t>세로 스크롤 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SendGame
-StartEvent() </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -284,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>계속</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 충돌
 MapCollision()</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,20 +204,6 @@
   <si>
     <t>아이템 충돌
 ItemCollision()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collision 동기화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 정보 송신
-SendClientStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 정보 수신
-RecvClientStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -428,11 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기타 충돌 
-이벤트 송수신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">맵 정보 송신
 SendMapData
@@ -469,30 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기존 클라이언트 수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-(클리어 조건)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RecvClient
 Pos()</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -532,44 +398,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SendOther
-ClientPos() </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="20"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중간 점검</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>RecvOhter
-ClientPos()</t>
-    </r>
+    <t>기존 클라이언트 수정
+(클리어 조건)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status 검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 조건 수정 및</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvClientInfo()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 순서 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 렌더링 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 충돌 동기화 작업, 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 간 정보 송수신 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,13 +588,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="KoPubWorld돋움체 Medium"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="KoPubWorld돋움체 Medium"/>
       <family val="3"/>
@@ -745,6 +604,14 @@
       <strike/>
       <sz val="20"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="KoPubWorld돋움체 Medium"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="KoPubWorld돋움체 Medium"/>
       <family val="3"/>
       <charset val="129"/>
@@ -811,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,10 +721,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -866,52 +739,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1234,17 +1107,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="17" width="27.625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="1"/>
+    <col min="1" max="17" width="27.58203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.1" customHeight="1">
+    <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1291,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.1" customHeight="1">
+    <row r="2" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1342,133 +1215,119 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="19" t="s">
+      <c r="K3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="N3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="93.95" customHeight="1">
+      <c r="J4" s="19"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="19"/>
+      <c r="K5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-    </row>
-    <row r="6" spans="1:17" ht="93.95" customHeight="1">
+      <c r="O5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="5" t="s">
+      <c r="K6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.1" customHeight="1">
+      <c r="L6" s="20"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1519,157 +1378,127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="18"/>
+      <c r="E8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="93.95" customHeight="1">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="31"/>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="29"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="93.95" customHeight="1">
+      <c r="O10" s="5"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.1" customHeight="1">
+      <c r="M11" s="31"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1714,126 +1543,126 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="18"/>
+      <c r="E13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="23"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="27" t="s">
+      <c r="L13" s="31"/>
+      <c r="M13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="27"/>
+      <c r="N13" s="30"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="19"/>
       <c r="B14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="29" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="93.95" customHeight="1">
+    <row r="15" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="B15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="93.95" customHeight="1">
+    <row r="16" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="F16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="15"/>
+        <v>38</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="F16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59.1" customHeight="1">
+    <row r="17" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1868,27 +1697,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="18"/>
+      <c r="E18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1899,48 +1726,44 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="93.95" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+    <row r="19" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="93.95" customHeight="1">
+    <row r="20" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="19"/>
+      <c r="B20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="31"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="17"/>
+      <c r="F20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1951,66 +1774,62 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="93.95" customHeight="1">
+    <row r="21" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="14"/>
+      <c r="B21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="23" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="24" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:17" ht="44.1" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="29" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="30" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="31" spans="1:17" ht="44.1" customHeight="1"/>
-    <row r="32" spans="1:17" ht="44.1" customHeight="1"/>
+    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N11:O11"/>
@@ -2019,6 +1838,10 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="M8:M11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N8:P9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
@@ -2028,8 +1851,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D8:D11"/>
@@ -2041,30 +1862,29 @@
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M13:N16"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G20:H20"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:L16"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="B24:D27"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/~Documents~/일정표.xlsx
+++ b/~Documents~/일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\~Documents~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D9004-DC20-405C-B9C2-7FFEDC229992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF2411-B853-41FF-8354-EFC849D0CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -427,15 +427,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>아이템 충돌 동기화 작업, 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 간 정보 송수신 작업</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">플레이어 간 정보 송수신 작업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>12/3 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>클라이언트 렌더링 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 충돌 동기화 작업, 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 간 정보 송수신 작업</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아이템 충돌 동기화 작업, 이벤트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>12/3 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">클라이언트 렌더링 수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="KoPubWorld돋움체 Medium"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>12/3 이동</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,9 +746,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,27 +779,48 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,28 +830,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
@@ -1119,48 +1168,48 @@
   <sheetData>
     <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1216,57 +1265,57 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="31" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="31"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
@@ -1274,58 +1323,58 @@
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="31"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="O5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
@@ -1379,124 +1428,130 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="23"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="31" t="s">
+      <c r="K8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="31"/>
+      <c r="K10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="K11" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
@@ -1544,61 +1599,61 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="24" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="30" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="34"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="23"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1607,27 +1662,27 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1636,28 +1691,28 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="F16" s="17" t="s">
+      <c r="D16" s="18"/>
+      <c r="F16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1698,23 +1753,23 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="23"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1727,19 +1782,19 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="23"/>
       <c r="I19" s="2"/>
       <c r="N19" s="2"/>
@@ -1751,19 +1806,19 @@
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1778,21 +1833,21 @@
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="20" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1802,26 +1857,26 @@
     <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1829,25 +1884,28 @@
     <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="56">
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M13:N16"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="H18:H19"/>
@@ -1863,28 +1921,26 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N8:P9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/~Documents~/일정표.xlsx
+++ b/~Documents~/일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정다민\Documents\다민\2023-2\네트워크게임프로그래밍\To_Be_A_Butterfly\~Documents~\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\To_Be_A_Butterfly\~Documents~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF2411-B853-41FF-8354-EFC849D0CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA77CB0-6C4F-42C5-BCAD-A36ADE08F617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9506B8FB-5D2B-43E2-9A36-DDC3AE748C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,11 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RecvClient
-Pos()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">SendClientPos() 
 </t>
@@ -403,88 +398,136 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>status 검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료 조건 수정 및</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RecvClientInfo()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카메라 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 순서 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 충돌 동기화 작업, 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 간 정보 송수신 작업</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">플레이어 간 정보 송수신 작업
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>12/3 이동</t>
-    </r>
+    <t>서버 자료형 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerMain
+메인 스레드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRecv_PlayerInfo_클라이언트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRecv_PlayerInfo_서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendClientinit
+서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessClient
+클라이언트 별 스래드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendCameraData</t>
+  </si>
+  <si>
+    <t>RecvCameraData</t>
+  </si>
+  <si>
+    <t>SendRecv_CoinInfo_서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRecv_CoinInfo_클라이언트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRecv_HeartInfo_서버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRecv_HeartInfo_클라이언트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 충돌 및 삭제 관련 함수 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvClientInit
+클라이언트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임계영역 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_Coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitCloud</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendCloudInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트_
+구름 받아오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름 충돌 및 상태 정보 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckEnding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트_코드 정리 및 
+플레이어 애니메이션 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServerProcess
+클라이언트 스레드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 위치 설정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>클라이언트 렌더링 수정</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">아이템 충돌 동기화 작업, 이벤트
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>12/3 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">클라이언트 렌더링 수정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="KoPubWorld돋움체 Medium"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>12/3 이동</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,21 +695,13 @@
     <font>
       <strike/>
       <sz val="20"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="KoPubWorld돋움체 Medium"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="KoPubWorld돋움체 Medium"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -727,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +784,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,65 +814,74 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1154,66 +1201,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC6F23C-6146-4FAD-817F-B3A42C13F2BF}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:Q6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="24" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="24.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="27.58203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="17" width="27.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1264,119 +1311,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18" t="s">
+      <c r="K3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="O3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L5" s="19"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-    </row>
-    <row r="6" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M5" s="25"/>
+      <c r="N5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="N6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1427,133 +1490,143 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="18" t="s">
+      <c r="K8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8" t="s">
+      <c r="N8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="16"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1598,126 +1671,127 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="29" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="24"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="F16" s="16" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="59.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1752,25 +1826,27 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="19"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1781,134 +1857,129 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="23"/>
+    <row r="19" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="19"/>
       <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="93.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F20" s="19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="30" t="s">
+    <row r="21" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:17" ht="44.15" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:17" ht="44.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="K3:L4"/>
+  <mergeCells count="54">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="P3:Q4"/>
     <mergeCell ref="K8:L9"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M13:N16"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:L16"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D8:D11"/>
@@ -1922,25 +1993,15 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:L16"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B23:D26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M13:N16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
